--- a/src/exports/empresas_trayectoria_undefined_18.xlsx.xlsx
+++ b/src/exports/empresas_trayectoria_undefined_18.xlsx.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,138 +433,124 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>67bf3901a9c0f101fb8c8299</v>
+      </c>
       <c r="B2" t="str">
-        <v>campero</v>
+        <v>techsoft</v>
       </c>
       <c r="C2" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="D2">
-        <v>1971</v>
+        <v>2005</v>
       </c>
       <c r="E2" t="str">
-        <v>Food</v>
+        <v>Technology</v>
       </c>
       <c r="F2" t="str">
-        <v>Empresa dedicada a la venta de Pollos y más.</v>
+        <v>Empresa de software especializada en soluciones empresariales.</v>
       </c>
       <c r="G2" s="1">
-        <v>45714.41199854167</v>
+        <v>45714.41219306713</v>
       </c>
       <c r="H2" s="1">
-        <v>45714.41199854167</v>
+        <v>45714.41219306713</v>
       </c>
       <c r="I2">
-        <v>NaN</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>67bf3926a9c0f101fb8c82a1</v>
+      </c>
       <c r="B3" t="str">
-        <v>techsoft</v>
+        <v>medicare</v>
       </c>
       <c r="C3" t="str">
         <v>High</v>
       </c>
       <c r="D3">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E3" t="str">
-        <v>Technology</v>
+        <v>Health</v>
       </c>
       <c r="F3" t="str">
-        <v>Empresa de software especializada en soluciones empresariales.</v>
+        <v>Red de hospitales y clínicas con atención de calidad.</v>
       </c>
       <c r="G3" s="1">
-        <v>45714.41219306713</v>
+        <v>45714.41261896991</v>
       </c>
       <c r="H3" s="1">
-        <v>45714.41219306713</v>
+        <v>45714.41261896991</v>
       </c>
       <c r="I3">
-        <v>NaN</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>67bf3931a9c0f101fb8c82a5</v>
+      </c>
       <c r="B4" t="str">
-        <v>medicare</v>
+        <v>autoworld</v>
       </c>
       <c r="C4" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="D4">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="E4" t="str">
-        <v>Health</v>
+        <v>Automotive</v>
       </c>
       <c r="F4" t="str">
-        <v>Red de hospitales y clínicas con atención de calidad.</v>
+        <v>Fabricante y distribuidor de automóviles a nivel internacional.</v>
       </c>
       <c r="G4" s="1">
-        <v>45714.41261896991</v>
+        <v>45714.412749166666</v>
       </c>
       <c r="H4" s="1">
-        <v>45714.41261896991</v>
+        <v>45714.412749166666</v>
       </c>
       <c r="I4">
-        <v>NaN</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>67bf394ca9c0f101fb8c82a9</v>
+      </c>
       <c r="B5" t="str">
-        <v>autoworld</v>
+        <v>fintrust</v>
       </c>
       <c r="C5" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="D5">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="E5" t="str">
-        <v>Automotive</v>
+        <v>Finance</v>
       </c>
       <c r="F5" t="str">
-        <v>Fabricante y distribuidor de automóviles a nivel internacional.</v>
+        <v>Firma financiera líder en inversiones y asesoramiento económico.</v>
       </c>
       <c r="G5" s="1">
-        <v>45714.412749166666</v>
+        <v>45714.4130590625</v>
       </c>
       <c r="H5" s="1">
-        <v>45714.412749166666</v>
+        <v>45714.4130590625</v>
       </c>
       <c r="I5">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>fintrust</v>
-      </c>
-      <c r="C6" t="str">
-        <v>High</v>
-      </c>
-      <c r="D6">
-        <v>1990</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Finance</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Firma financiera líder en inversiones y asesoramiento económico.</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45714.4130590625</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45714.4130590625</v>
-      </c>
-      <c r="I6">
-        <v>NaN</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>